--- a/3TP/projetRO/Résultats expérimentaux.xlsx
+++ b/3TP/projetRO/Résultats expérimentaux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mehdilatif/Desktop/ÉTUDES/FAC/S6/RO/TP/3TP/projetRO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1C487A01-6BD5-A34E-8F81-2EA0F86DDC9C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{08D487B0-D22B-AF4E-8E22-6B4FC2D6DD2F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="0" windowWidth="16120" windowHeight="17560" xr2:uid="{547F177B-E832-2149-833C-BBBB1F24BC1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{547F177B-E832-2149-833C-BBBB1F24BC1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Exacte" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Plat 10</t>
   </si>
@@ -115,19 +115,127 @@
   </si>
   <si>
     <t>Relief 150</t>
+  </si>
+  <si>
+    <t>Nb Iter</t>
+  </si>
+  <si>
+    <t>Nb Ctr ajoutée</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Tps + CPU</t>
+  </si>
+  <si>
+    <t>0.137014 seconds (5.89 k allocations: 393.406 KiB)</t>
+  </si>
+  <si>
+    <t>0.165501 seconds (26.36 k allocations: 2.154 MiB)</t>
+  </si>
+  <si>
+    <t>0.206548 seconds (57.40 k allocations: 5.059 MiB)</t>
+  </si>
+  <si>
+    <t>1.062222 seconds (123.52 k allocations: 11.635 MiB)</t>
+  </si>
+  <si>
+    <t>3.375432 seconds (311.61 k allocations: 31.073 MiB, 0.18% gc time)</t>
+  </si>
+  <si>
+    <t>0.492398 seconds (195.61 k allocations: 19.725 MiB, 1.01% gc time)</t>
+  </si>
+  <si>
+    <t>17.763255 seconds (667.01 k allocations: 72.797 MiB, 0.10% gc time)</t>
+  </si>
+  <si>
+    <t>6.156659 seconds (685.97 k allocations: 73.051 MiB, 0.29% gc time)</t>
+  </si>
+  <si>
+    <t>7.125538 seconds (911.33 k allocations: 96.495 MiB, 0.28% gc time)</t>
+  </si>
+  <si>
+    <t>41.788991 seconds (1.41 M allocations: 157.975 MiB, 0.38% gc time)</t>
+  </si>
+  <si>
+    <t>35.971777 seconds (2.14 M allocations: 236.806 MiB, 0.13% gc time)</t>
+  </si>
+  <si>
+    <t>105.200705 seconds (3.88 M allocations: 445.682 MiB, 0.08% gc time)</t>
+  </si>
+  <si>
+    <t>12.828082 seconds (1.42 M allocations: 155.523 MiB, 0.27% gc time)</t>
+  </si>
+  <si>
+    <t>45.006563 seconds (2.75 M allocations: 323.459 MiB, 0.14% gc time)</t>
+  </si>
+  <si>
+    <t>74.752989 seconds (3.30 M allocations: 383.730 MiB, 0.25% gc time)</t>
+  </si>
+  <si>
+    <t>  0.130585 seconds (5.89 k allocations: 394.094 KiB)</t>
+  </si>
+  <si>
+    <t>  0.145352 seconds (13.47 k allocations: 937.688 KiB)</t>
+  </si>
+  <si>
+    <t>  0.131483 seconds (6.80 k allocations: 856.938 KiB)</t>
+  </si>
+  <si>
+    <t>  0.155768 seconds (49.13 k allocations: 3.593 MiB)</t>
+  </si>
+  <si>
+    <t>  0.480462 seconds (110.15 k allocations: 9.687 MiB, 1.22% gc time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.478024 seconds (154.46 k allocations: 13.213 MiB, 1.35% gc time)</t>
+  </si>
+  <si>
+    <t>  0.384103 seconds (175.00 k allocations: 14.856 MiB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.156912 seconds (296.54 k allocations: 26.947 MiB, 0.99% gc time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.976702 seconds (302.92 k allocations: 25.066 MiB, 0.66% gc time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.671390 seconds (521.89 k allocations: 50.510 MiB, 0.50% gc time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.016204 seconds (399.29 k allocations: 31.878 MiB, 0.65% gc time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.732261 seconds (655.98 k allocations: 58.963 MiB, 0.89% gc time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.819629 seconds (487.95 k allocations: 38.457 MiB, 1.75% gc time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9.981334 seconds (1.30 M allocations: 134.869 MiB, 1.38% gc time)</t>
+  </si>
+  <si>
+    <t>  3.296910 seconds (1.02 M allocations: 94.883 MiB, 1.07% gc time)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,8 +258,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,165 +575,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1E17BB-6991-4349-B8E8-0823C82541ED}">
-  <dimension ref="A2:A32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="C27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="C29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
+      <c r="C32" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/3TP/projetRO/Résultats expérimentaux.xlsx
+++ b/3TP/projetRO/Résultats expérimentaux.xlsx
@@ -8,13 +8,68 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mehdilatif/Desktop/ÉTUDES/FAC/S6/RO/TP/3TP/projetRO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{08D487B0-D22B-AF4E-8E22-6B4FC2D6DD2F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{83ABFD5B-8283-254B-9807-C1E442E643D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{547F177B-E832-2149-833C-BBBB1F24BC1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{547F177B-E832-2149-833C-BBBB1F24BC1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Exacte" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphe" sheetId="3" r:id="rId2"/>
+    <sheet name="Approchée" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">Exacte!$A$1:$K$16</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Approchée!$A$23:$A$37</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Approchée!$B$22</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Approchée!$A$23:$A$37</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Approchée!$B$22</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Approchée!$B$23:$B$37</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Approchée!$C$22</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Approchée!$C$23:$C$37</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Approchée!$A$23:$A$37</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Approchée!$B$22</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Approchée!$B$23:$B$37</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Approchée!$C$22</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Approchée!$C$23:$C$37</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Approchée!$B$23:$B$37</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Approchée!$A$23:$A$37</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Approchée!$B$22</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Approchée!$B$23:$B$37</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Approchée!$C$22</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Approchée!$C$23:$C$37</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Approchée!$A$23:$A$37</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Approchée!$B$22</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Approchée!$B$23:$B$37</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Approchée!$C$22</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Approchée!$C$23:$C$37</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Approchée!$C$22</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Approchée!$A$23:$A$37</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Approchée!$B$22</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Approchée!$B$23:$B$37</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Approchée!$C$22</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Approchée!$C$23:$C$37</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Approchée!$A$23:$A$37</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Approchée!$B$22</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Approchée!$B$23:$B$37</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Approchée!$C$22</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Approchée!$C$23:$C$37</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Approchée!$C$23:$C$37</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Approchée!$A$23:$A$37</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Approchée!$B$22</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Approchée!$B$23:$B$37</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Approchée!$C$22</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Approchée!$C$23:$C$37</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Approchée!$A$23:$A$37</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Approchée!$B$22</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Approchée!$B$23:$B$37</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Approchée!$C$22</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Approchée!$C$23:$C$37</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Approchée!$A$23:$A$37</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Approchée!$B$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Approchée!$B$23:$B$37</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Approchée!$C$22</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Approchée!$C$23:$C$37</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="189">
   <si>
     <t>Plat 10</t>
   </si>
@@ -117,113 +172,491 @@
     <t>Relief 150</t>
   </si>
   <si>
-    <t>Nb Iter</t>
-  </si>
-  <si>
     <t>Nb Ctr ajoutée</t>
   </si>
   <si>
-    <t>Solution</t>
-  </si>
-  <si>
-    <t>Tps + CPU</t>
-  </si>
-  <si>
-    <t>0.137014 seconds (5.89 k allocations: 393.406 KiB)</t>
-  </si>
-  <si>
-    <t>0.165501 seconds (26.36 k allocations: 2.154 MiB)</t>
-  </si>
-  <si>
-    <t>0.206548 seconds (57.40 k allocations: 5.059 MiB)</t>
-  </si>
-  <si>
-    <t>1.062222 seconds (123.52 k allocations: 11.635 MiB)</t>
-  </si>
-  <si>
-    <t>3.375432 seconds (311.61 k allocations: 31.073 MiB, 0.18% gc time)</t>
-  </si>
-  <si>
-    <t>0.492398 seconds (195.61 k allocations: 19.725 MiB, 1.01% gc time)</t>
-  </si>
-  <si>
-    <t>17.763255 seconds (667.01 k allocations: 72.797 MiB, 0.10% gc time)</t>
-  </si>
-  <si>
-    <t>6.156659 seconds (685.97 k allocations: 73.051 MiB, 0.29% gc time)</t>
-  </si>
-  <si>
-    <t>7.125538 seconds (911.33 k allocations: 96.495 MiB, 0.28% gc time)</t>
-  </si>
-  <si>
-    <t>41.788991 seconds (1.41 M allocations: 157.975 MiB, 0.38% gc time)</t>
-  </si>
-  <si>
-    <t>35.971777 seconds (2.14 M allocations: 236.806 MiB, 0.13% gc time)</t>
-  </si>
-  <si>
-    <t>105.200705 seconds (3.88 M allocations: 445.682 MiB, 0.08% gc time)</t>
-  </si>
-  <si>
-    <t>12.828082 seconds (1.42 M allocations: 155.523 MiB, 0.27% gc time)</t>
-  </si>
-  <si>
-    <t>45.006563 seconds (2.75 M allocations: 323.459 MiB, 0.14% gc time)</t>
-  </si>
-  <si>
-    <t>74.752989 seconds (3.30 M allocations: 383.730 MiB, 0.25% gc time)</t>
-  </si>
-  <si>
-    <t>  0.130585 seconds (5.89 k allocations: 394.094 KiB)</t>
-  </si>
-  <si>
-    <t>  0.145352 seconds (13.47 k allocations: 937.688 KiB)</t>
-  </si>
-  <si>
-    <t>  0.131483 seconds (6.80 k allocations: 856.938 KiB)</t>
-  </si>
-  <si>
-    <t>  0.155768 seconds (49.13 k allocations: 3.593 MiB)</t>
-  </si>
-  <si>
-    <t>  0.480462 seconds (110.15 k allocations: 9.687 MiB, 1.22% gc time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.478024 seconds (154.46 k allocations: 13.213 MiB, 1.35% gc time)</t>
-  </si>
-  <si>
-    <t>  0.384103 seconds (175.00 k allocations: 14.856 MiB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.156912 seconds (296.54 k allocations: 26.947 MiB, 0.99% gc time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.976702 seconds (302.92 k allocations: 25.066 MiB, 0.66% gc time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.671390 seconds (521.89 k allocations: 50.510 MiB, 0.50% gc time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.016204 seconds (399.29 k allocations: 31.878 MiB, 0.65% gc time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.732261 seconds (655.98 k allocations: 58.963 MiB, 0.89% gc time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.819629 seconds (487.95 k allocations: 38.457 MiB, 1.75% gc time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9.981334 seconds (1.30 M allocations: 134.869 MiB, 1.38% gc time)</t>
-  </si>
-  <si>
-    <t>  3.296910 seconds (1.02 M allocations: 94.883 MiB, 1.07% gc time)</t>
+    <t>OPT</t>
+  </si>
+  <si>
+    <t>Temps total de parcours</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>0.137014 seconds</t>
+  </si>
+  <si>
+    <t>0.165501</t>
+  </si>
+  <si>
+    <t>Temps machine (secondes)</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>0.206548</t>
+  </si>
+  <si>
+    <t>1.062222</t>
+  </si>
+  <si>
+    <t>0.492398</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>3.375432</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>17.763255</t>
+  </si>
+  <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>6.156659</t>
+  </si>
+  <si>
+    <t>157.0</t>
+  </si>
+  <si>
+    <t>7.125538</t>
+  </si>
+  <si>
+    <t>173.0</t>
+  </si>
+  <si>
+    <t>41.788991</t>
+  </si>
+  <si>
+    <t>152.0</t>
+  </si>
+  <si>
+    <t>12.828082</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.971777 </t>
+  </si>
+  <si>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>45.006563</t>
+  </si>
+  <si>
+    <t>141.0</t>
+  </si>
+  <si>
+    <t>74.752989</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>105.200705</t>
+  </si>
+  <si>
+    <t>198.0</t>
+  </si>
+  <si>
+    <t>  0.130585</t>
+  </si>
+  <si>
+    <t>147.0</t>
+  </si>
+  <si>
+    <t>  0.145352</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>  0.131483</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>  0.155768</t>
+  </si>
+  <si>
+    <t>155.0</t>
+  </si>
+  <si>
+    <t>0.480462</t>
+  </si>
+  <si>
+    <t>136.0</t>
+  </si>
+  <si>
+    <t>115.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>113.0</t>
+  </si>
+  <si>
+    <t>107.0</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>0.478024</t>
+  </si>
+  <si>
+    <t>  0.384103</t>
+  </si>
+  <si>
+    <t>1.156912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.976702</t>
+  </si>
+  <si>
+    <t>3.671390</t>
+  </si>
+  <si>
+    <t>1.016204</t>
+  </si>
+  <si>
+    <t>2.732261</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.819629</t>
+  </si>
+  <si>
+    <t>9.981334</t>
+  </si>
+  <si>
+    <t>  3.296910</t>
+  </si>
+  <si>
+    <t>Cout de base</t>
+  </si>
+  <si>
+    <t>Cout réduit</t>
+  </si>
+  <si>
+    <t>Nombre de solutions potentiellement améliorantes</t>
+  </si>
+  <si>
+    <t>7.06 k allocations: 383.305 KiB</t>
+  </si>
+  <si>
+    <t>7.49 k allocations: 402.070 KiB</t>
+  </si>
+  <si>
+    <t>9.21 k allocations: 477.180 KiB</t>
+  </si>
+  <si>
+    <t>9.06 k allocations: 472.305 KiB</t>
+  </si>
+  <si>
+    <t>8.68 k allocations: 456.367 KiB</t>
+  </si>
+  <si>
+    <t>11.23 k allocations: 573.617 KiB</t>
+  </si>
+  <si>
+    <t>15.66 k allocations: 772.211 KiB</t>
+  </si>
+  <si>
+    <t>12.87 k allocations: 650.055 KiB</t>
+  </si>
+  <si>
+    <t>16.01 k allocations: 795.805 KiB</t>
+  </si>
+  <si>
+    <t>16.18 k allocations: 806.852 KiB</t>
+  </si>
+  <si>
+    <t>22.97 k allocations: 1.096 MiB</t>
+  </si>
+  <si>
+    <t>14.54 k allocations: 731.992 KiB</t>
+  </si>
+  <si>
+    <t>17.71 k allocations: 880.539 KiB</t>
+  </si>
+  <si>
+    <t>11.02 k allocations: 569.492 KiB</t>
+  </si>
+  <si>
+    <t>37.10 k allocations: 1.745 MiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.051375 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.047224 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.047263 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.054752 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.054896 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.052555 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.051334 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.050759 </t>
+  </si>
+  <si>
+    <t>Delta Coût</t>
+  </si>
+  <si>
+    <t>Nombre de comparaison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.057533 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.055708 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.049780 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.045220 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.050341 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.050174 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.055015 </t>
+  </si>
+  <si>
+    <t>5.89 k alloc: 393.406 KiB</t>
+  </si>
+  <si>
+    <t>26.36 k alloc: 2.154 MiB</t>
+  </si>
+  <si>
+    <t>57.40 k alloc: 5.059 MiB</t>
+  </si>
+  <si>
+    <t>123.52 k alloc: 11.635 MiB</t>
+  </si>
+  <si>
+    <t>195.61 k alloc: 19.725 MiB</t>
+  </si>
+  <si>
+    <t>311.61 k alloc: 31.073 MiB</t>
+  </si>
+  <si>
+    <t>667.01 k alloc: 72.797 MiB</t>
+  </si>
+  <si>
+    <t>685.97 k alloc: 73.051 MiB</t>
+  </si>
+  <si>
+    <t>911.33 k alloc: 96.495 MiB</t>
+  </si>
+  <si>
+    <t>1.41 M alloc: 157.975 MiB</t>
+  </si>
+  <si>
+    <t>1.42 M alloc: 155.523 MiB</t>
+  </si>
+  <si>
+    <t>2.14 M alloc: 236.806 MiB</t>
+  </si>
+  <si>
+    <t>2.75 M alloc: 323.459 MiB</t>
+  </si>
+  <si>
+    <t>3.30 M alloc: 383.730 MiB</t>
+  </si>
+  <si>
+    <t>3.88 M alloc: 445.682 MiB</t>
+  </si>
+  <si>
+    <t>5.89 k alloc: 394.094 KiB</t>
+  </si>
+  <si>
+    <t>13.47 k alloc: 937.688 KiB</t>
+  </si>
+  <si>
+    <t>6.80 k alloc: 856.938 KiB</t>
+  </si>
+  <si>
+    <t>49.13 k alloc: 3.593 MiB</t>
+  </si>
+  <si>
+    <t>110.15 k alloc: 9.687 MiB</t>
+  </si>
+  <si>
+    <t>154.46 k alloc: 13.213 MiB</t>
+  </si>
+  <si>
+    <t>175.00 k alloc: 14.856 MiB</t>
+  </si>
+  <si>
+    <t>296.54 k alloc: 26.947 MiB</t>
+  </si>
+  <si>
+    <t>302.92 k alloc: 25.066 MiB</t>
+  </si>
+  <si>
+    <t>521.89 k alloc: 50.510 MiB</t>
+  </si>
+  <si>
+    <t>399.29 k alloc: 31.878 MiB</t>
+  </si>
+  <si>
+    <t>655.98 k alloc: 58.963 MiB</t>
+  </si>
+  <si>
+    <t>487.95 k alloc: 38.457 MiB</t>
+  </si>
+  <si>
+    <t>1.30 M alloc: 134.869 MiB</t>
+  </si>
+  <si>
+    <t>1.02 M alloc: 94.883 MiB</t>
+  </si>
+  <si>
+    <t>2x(2)</t>
+  </si>
+  <si>
+    <t>14x(2)</t>
+  </si>
+  <si>
+    <t>Taille contraintes à casser :nb*(taille)</t>
+  </si>
+  <si>
+    <t>23x(2)</t>
+  </si>
+  <si>
+    <t>13x(2), 2x(8),2x(16),2x(3),1x(18)</t>
+  </si>
+  <si>
+    <t>22x(2),2x(19),2x(11),1x(15)</t>
+  </si>
+  <si>
+    <t>36x(2),4x(4),3x(13),2x(35),2x(10),2x(3)</t>
+  </si>
+  <si>
+    <t>33x(2),2x(33),2x(6),1x(8)</t>
+  </si>
+  <si>
+    <t>41x(2)</t>
+  </si>
+  <si>
+    <t>46x(2),2x(4),2x(21),2x(5),1x(10),1x(14)</t>
+  </si>
+  <si>
+    <t>44x(2)</t>
+  </si>
+  <si>
+    <t>58x(2),1x(12)</t>
+  </si>
+  <si>
+    <t>66x(2)</t>
+  </si>
+  <si>
+    <t>69x(2),1x(49),1x(38)</t>
+  </si>
+  <si>
+    <t>65x(2),3x(20),1x(8)</t>
+  </si>
+  <si>
+    <t>6x(2),2x(8),2x(7), 1x(3)</t>
+  </si>
+  <si>
+    <t>1x(3)</t>
+  </si>
+  <si>
+    <t>1x(3),1x(13)</t>
+  </si>
+  <si>
+    <t>1x(2),1x(4),1x(16),1x(15),1x(6),1x(8),1x(23),1x(5)</t>
+  </si>
+  <si>
+    <t>2x(3),1x(8),1x(2),1x(17),1x(12),1x(7),1x(13)</t>
+  </si>
+  <si>
+    <t>2x(2),1x(12),1x(5),1x(8)</t>
+  </si>
+  <si>
+    <t>1x(2),1x(11),1x(22),1x(23),1x(8),1x(10)</t>
+  </si>
+  <si>
+    <t>2x(5),1x(7),1x(2)</t>
+  </si>
+  <si>
+    <t>1x(6),1x(4)</t>
+  </si>
+  <si>
+    <t>2x(6),1x(18),1x(33),1x(20),1x(31),1x(7),1x(10),1x(34),1x(3)</t>
+  </si>
+  <si>
+    <t>2x(2),2x(3),2x(4),1x(5),1x(8),1x(24),1x(34)</t>
+  </si>
+  <si>
+    <t>2x(6),2x(10),1x(3),1x(8),2x(31),1x(11),1(49)</t>
+  </si>
+  <si>
+    <t>3x(11),2x(4),2x(15),1x(7),1x(27),1x(29),1x(17),1x(37),1x(13)</t>
+  </si>
+  <si>
+    <t>1x(38),1x(12),2x(11),2x(65),3x(2),2x(4),1x(24),1x(3),1x(5),1x(32),1x(52),1x(29),1x(6),1x(8),1x(41)</t>
+  </si>
+  <si>
+    <t>Nombre de sommets</t>
+  </si>
+  <si>
+    <t>Nombre de contraintes ajoutées</t>
+  </si>
+  <si>
+    <t>Plat</t>
+  </si>
+  <si>
+    <t>Relief</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)\ _€_ ;_ * \(#,##0.00\)\ _€_ ;_ * &quot;-&quot;??_)\ _€_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,6 +669,20 @@
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -255,14 +702,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -276,6 +734,2464 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Nombre de contraintes ajoutées</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphe!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Plat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphe!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphe!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F93F-3941-84C5-6FA0F3CDB2D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphe!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Relief</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphe!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphe!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F93F-3941-84C5-6FA0F3CDB2D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="279650560"/>
+        <c:axId val="279652256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="279650560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Taille de l'instance considérée</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279652256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="279652256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279650560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Représentation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> des coûts avant et après application de l'heuristique 2-OPT</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Approchée!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cout de base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Approchée!$A$23:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Plat 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plat 20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Plat 30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Plat 40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Plat 50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Plat 60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Plat 70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Plat 80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Plat 90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Plat 100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Plat 110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Plat 120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Plat 130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Plat 140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Plat 150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Approchée!$B$23:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>609</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F2A-C847-94B3-3403C2EDCAE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Approchée!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cout réduit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Approchée!$A$23:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Plat 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plat 20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Plat 30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Plat 40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Plat 50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Plat 60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Plat 70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Plat 80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Plat 90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Plat 100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Plat 110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Plat 120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Plat 130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Plat 140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Plat 150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Approchée!$C$23:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>537</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F2A-C847-94B3-3403C2EDCAE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="307501248"/>
+        <c:axId val="307502944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="307501248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307502944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="307502944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307501248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B786735A-DC43-A340-8A03-C8FA9246D4C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28284CF-D793-C640-87A0-CB516639EE9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,275 +3491,2096 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1E17BB-6991-4349-B8E8-0823C82541ED}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5">
+        <v>192</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6">
+        <v>207</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="B34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="3:17">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K16" xr:uid="{53830D2A-7C9B-8845-8ED4-0E8EF8ED1A92}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2D8448-CB3E-AA41-AEA8-1B468C60E561}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" customHeight="1">
+      <c r="B1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11" s="2">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12" s="2">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14" s="2">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15" s="2">
+        <v>66</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16" s="2">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17" s="2">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3DA798-2F08-8C48-A142-1512F3C55033}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>170</v>
+      </c>
+      <c r="C2" s="2">
+        <v>170</v>
+      </c>
+      <c r="D2" s="2">
+        <f>B2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>73</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>234</v>
+      </c>
+      <c r="C3" s="2">
+        <v>230</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D16" si="0">B3-C3</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>323</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>311</v>
+      </c>
+      <c r="C4" s="2">
+        <v>223</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>243</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>293</v>
+      </c>
+      <c r="C5" s="2">
+        <v>243</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>777</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>442</v>
+      </c>
+      <c r="C6" s="2">
+        <v>317</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>94</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>407</v>
+      </c>
+      <c r="C7" s="2">
+        <v>277</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="E7" s="2">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1026</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>449</v>
+      </c>
+      <c r="C8" s="2">
+        <v>415</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1047</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>511</v>
+      </c>
+      <c r="C9" s="2">
+        <v>193</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>318</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1463</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>461</v>
+      </c>
+      <c r="C10" s="2">
+        <v>391</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E10" s="2">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1653</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>508</v>
+      </c>
+      <c r="C11" s="2">
+        <v>435</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E11" s="2">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1552</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>462</v>
+      </c>
+      <c r="C12" s="2">
+        <v>382</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E12" s="2">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2247</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>364</v>
+      </c>
+      <c r="C13" s="2">
+        <v>305</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2574</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>411</v>
+      </c>
+      <c r="C14" s="2">
+        <v>315</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2032</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>379</v>
+      </c>
+      <c r="C15" s="2">
+        <v>305</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3562</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>609</v>
+      </c>
+      <c r="C16" s="2">
+        <v>537</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E16" s="2">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4704</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
+        <v>170</v>
+      </c>
+      <c r="C23" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2">
+        <v>234</v>
+      </c>
+      <c r="C24" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2">
+        <v>311</v>
+      </c>
+      <c r="C25" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2">
+        <v>293</v>
+      </c>
+      <c r="C26" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <v>442</v>
+      </c>
+      <c r="C27" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2">
+        <v>407</v>
+      </c>
+      <c r="C28" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2">
+        <v>449</v>
+      </c>
+      <c r="C29" s="2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2">
+        <v>511</v>
+      </c>
+      <c r="C30" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2">
+        <v>461</v>
+      </c>
+      <c r="C31" s="2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2">
+        <v>508</v>
+      </c>
+      <c r="C32" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2">
+        <v>462</v>
+      </c>
+      <c r="C33" s="2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="2">
+        <v>364</v>
+      </c>
+      <c r="C34" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2">
+        <v>411</v>
+      </c>
+      <c r="C35" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2">
+        <v>379</v>
+      </c>
+      <c r="C36" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="2">
+        <v>609</v>
+      </c>
+      <c r="C37" s="2">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>